--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2425515.333496652</v>
+        <v>2534157.494799465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9221091.067479519</v>
+        <v>9226584.713467935</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>253.3097248395328</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>27.05447077669613</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>158.3248319736772</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.54863104697875</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>14.46374410486391</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>368.1629217297378</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.3625161066078</v>
       </c>
       <c r="D7" t="n">
-        <v>108.2994289306301</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>213.8614881801121</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.6917875237539</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.4445629787799</v>
+        <v>13.53320967905553</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>5.421623586792367</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>219.9959052902007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1291803787684</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>52.91369288258022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>276.7155083675887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>157.1838954824124</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>93.05052491174621</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788180832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>174.9868265178721</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.00369384633011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>71.998844369257</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>39.17658763086935</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>140.7158229532361</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.05950344416375</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>93.05052491174666</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>113.8415422301048</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>118.1266457994467</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.98993057842264</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>19.88691958258272</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>184.4977429617869</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.88691958258272</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,19 +3948,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>58.24570521549272</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>1485.986492286524</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>1485.986492286524</v>
       </c>
       <c r="D2" t="n">
-        <v>555.9340887810113</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
-        <v>555.9340887810113</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>144.9481839914037</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>1485.986492286524</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4403,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>551.602574876695</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081668</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1537.722255345255</v>
+        <v>663.7249087127072</v>
       </c>
       <c r="C4" t="n">
-        <v>1377.798182644571</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D4" t="n">
-        <v>1377.798182644571</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.885089062178</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110473</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>2236.777441110473</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>2236.777441110473</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W4" t="n">
-        <v>1947.360271073512</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X4" t="n">
-        <v>1719.370720175495</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y4" t="n">
-        <v>1719.370720175495</v>
+        <v>663.7249087127072</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>858.9396732896246</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>858.9396732896246</v>
+        <v>844.3298307594591</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>844.3298307594591</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>844.3298307594591</v>
       </c>
       <c r="F5" t="n">
         <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,22 +4567,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4595,7 +4597,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
         <v>1975.31341879663</v>
@@ -4604,13 +4606,13 @@
         <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526516</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.079005265436</v>
+        <v>1603.431679675683</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.9396732896246</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4640,19 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>520.410991093637</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>815.1145481251086</v>
       </c>
       <c r="M6" t="n">
         <v>1178.376567084329</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751.3310369968233</v>
+        <v>354.0715125813132</v>
       </c>
       <c r="C7" t="n">
-        <v>582.3948540689164</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X7" t="n">
-        <v>1153.772080970593</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y7" t="n">
-        <v>932.979501827063</v>
+        <v>535.7199774115529</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>3109.584116376734</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>3109.584116376734</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1954.384678298117</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W10" t="n">
-        <v>857.0973536342402</v>
+        <v>1231.074467327194</v>
       </c>
       <c r="X10" t="n">
-        <v>629.1078027362229</v>
+        <v>1003.084916429177</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.1078027362229</v>
+        <v>782.2923372856468</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>2565.513299557013</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>2680.685310603267</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>3278.063798229819</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>3905.661761784425</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023712</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023712</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>733.4550657171342</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>564.5188827892273</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>414.4022433768915</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>266.4891497944984</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782993</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038381</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831769</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.483279497101</v>
+        <v>1363.885660588921</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1135.896109690904</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>915.1035305473739</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,34 +5296,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913448</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>2715.159942084668</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>3210.485548300427</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>3807.864035926979</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>3807.864035926979</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>4267.210002903527</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072753</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793684</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D16" t="n">
-        <v>665.8664132670326</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9533196846395</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0633721867291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648823</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648823</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750805</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072753</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2546.907945506608</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L18" t="n">
-        <v>3042.233551722367</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M18" t="n">
-        <v>3639.612039348919</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>4267.210002903525</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2495.978408795858</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>3042.233551722367</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>3639.612039348919</v>
+        <v>3278.063798229818</v>
       </c>
       <c r="N24" t="n">
-        <v>4267.210002903525</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
         <v>4690.833152398593</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>3807.864035926977</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3200.825397924057</v>
+        <v>1029.681434529216</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>860.7452516013095</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>710.6286121889738</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>562.7155186065806</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>415.8255711086703</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>248.6294718235502</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3892.683611934787</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3603.266441897827</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.266441897827</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>3382.473862754297</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3167.361685286662</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>2998.425502358755</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3167.361685286662</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L33" t="n">
-        <v>2680.685310603266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4127.340720125057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3872.65623191917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3583.239061882209</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3355.249510984192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3355.249510984192</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075804</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2077.746892708107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1788.671666052305</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1533.987177846418</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.570007809457</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.58045691144</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.58045691144</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557011</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.83890577277</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>3658.217393399321</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>4285.815356953928</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>802.9288273958734</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>652.8121879835377</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>504.8990944011446</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7664,22 +7666,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>4359.773766166264</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2939.372134388644</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2770.435951460737</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2620.319312048401</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2620.319312048401</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2620.319312048401</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218384</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296622</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822161</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998101</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729136</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389144</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098129</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671688</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.33114932884</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673038</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467151</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430191</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532174</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388644</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>255.8421700460946</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>129.7511347056862</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>98.24448441976881</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601773</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.9994244361389</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>66.52709304639029</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.30478226780079</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>112.6104454096886</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>9.46896602165549</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>68.52575990662476</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.19629618688163</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300315</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>68.29586847696689</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.899650064976271</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>123.3744592024054</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>193.1339494774975</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>104.74311112199</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>30.48882721876569</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>125.5341284403485</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>32.90770736550132</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5341284403485</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>107.2784330767761</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806615.1652677997</v>
+        <v>812557.0927688705</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793067.3743478796</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793067.3743478796</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>636307.3716448203</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805865</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707275</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26445,19 +26447,19 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707442</v>
+        <v>6897.424496707399</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707464</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.9112025693</v>
+        <v>-703291.9112025688</v>
       </c>
       <c r="C6" t="n">
-        <v>411459.8723733503</v>
+        <v>411459.8723733504</v>
       </c>
       <c r="D6" t="n">
-        <v>249661.8313750296</v>
+        <v>411459.8723733505</v>
       </c>
       <c r="E6" t="n">
-        <v>192106.1986317853</v>
+        <v>10033.21881459416</v>
       </c>
       <c r="F6" t="n">
         <v>517518.6604391403</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391403</v>
+        <v>517518.6604391406</v>
       </c>
       <c r="H6" t="n">
         <v>517518.6604391405</v>
       </c>
       <c r="I6" t="n">
+        <v>517518.6604391402</v>
+      </c>
+      <c r="J6" t="n">
+        <v>349913.4826291577</v>
+      </c>
+      <c r="K6" t="n">
+        <v>517518.6604391402</v>
+      </c>
+      <c r="L6" t="n">
+        <v>517518.6604391406</v>
+      </c>
+      <c r="M6" t="n">
+        <v>384911.3667102136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>517518.6604391404</v>
+      </c>
+      <c r="O6" t="n">
         <v>517518.6604391403</v>
       </c>
-      <c r="J6" t="n">
-        <v>349913.4826291581</v>
-      </c>
-      <c r="K6" t="n">
-        <v>517518.6604391404</v>
-      </c>
-      <c r="L6" t="n">
-        <v>469224.6904309496</v>
-      </c>
-      <c r="M6" t="n">
-        <v>432463.6325036285</v>
-      </c>
-      <c r="N6" t="n">
-        <v>517518.6604391406</v>
-      </c>
-      <c r="O6" t="n">
-        <v>517518.6604391402</v>
-      </c>
       <c r="P6" t="n">
-        <v>517518.6604391402</v>
+        <v>517518.6604391401</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26795,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>101.3733167811501</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>384.4932319962579</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>8.921989124950613</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>182.036022305116</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>340.2192975158191</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.568178948731259</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.88430499202005</v>
       </c>
       <c r="D7" t="n">
-        <v>40.31604408758221</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>113.8907702900228</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.5461511322997</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>44.07843535781106</v>
+        <v>272.9897886575355</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28269,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>254.8897444730594</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>616.3752871594859</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732812</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226589</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0899880277078</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>210.394892436556</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>370.9642309107742</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,16 +33268,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8897444730603</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>432.1946015714842</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>673.7140351260975</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>442.4296662895795</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>465.1758167018091</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>284.8319806632535</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>116.3353646931852</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>473.7790427150414</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.046483262957</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191352</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627482999</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>481.5356082478336</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453769</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>228.3679864663297</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.3353646931862</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>290.0605676494659</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>531.5800012040792</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38193,7 +38195,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572999037</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2534157.494799465</v>
+        <v>2530020.337549313</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>253.3097248395328</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247058</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>147.9367604785725</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.57009008111558</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.54863104697875</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>27.93061033756413</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>368.1629217297378</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.3625161066078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>60.42908945944562</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.6276894525145</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247061</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.6917875237539</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542695</v>
       </c>
       <c r="W10" t="n">
-        <v>13.53320967905553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>5.421623586792367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>106.1291803787684</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>157.1838954824124</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>93.05052491174621</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.9868265178721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>71.998844369257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>23.05950344416375</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.8415422301048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>118.1266457994467</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>206.550999857767</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.88691958258272</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>28.87857325623944</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.986492286524</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.986492286524</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.325186007826</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816076</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872904</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.47031392356</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.986492286524</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057908</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605185</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919899</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925521</v>
+        <v>1730.220240748154</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924316</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756612</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7249087127072</v>
+        <v>940.7932119894608</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>771.8570290615539</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>621.7403896492182</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>473.8272960668251</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668251</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020473</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.637649969323</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096581</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O4" t="n">
         <v>1383.126566999034</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510696</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="X4" t="n">
-        <v>700.6427178510696</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.7249087127072</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>1660.900948886689</v>
       </c>
       <c r="C5" t="n">
-        <v>844.3298307594591</v>
+        <v>1291.938431946277</v>
       </c>
       <c r="D5" t="n">
-        <v>844.3298307594591</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>844.3298307594591</v>
+        <v>877.9374416333217</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.431679675683</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="Y5" t="n">
-        <v>1213.292347699871</v>
+        <v>2047.500788950811</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370159</v>
       </c>
       <c r="K6" t="n">
-        <v>520.410991093637</v>
+        <v>614.5430248380253</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251086</v>
+        <v>909.2465818694966</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>354.0715125813132</v>
+        <v>682.7064461033912</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1598801503962</v>
+        <v>513.7702631754843</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>513.7702631754843</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312182</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020472</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693229</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096579</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O7" t="n">
         <v>1383.126566999034</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485136</v>
+        <v>1381.761631868609</v>
       </c>
       <c r="W7" t="n">
-        <v>535.7199774115529</v>
+        <v>1092.344461831648</v>
       </c>
       <c r="X7" t="n">
-        <v>535.7199774115529</v>
+        <v>864.3549109336309</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.7199774115529</v>
+        <v>864.3549109336309</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.784838233996</v>
+        <v>1445.965582893146</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>1077.003065952734</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>718.7373673459838</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>332.9491147477395</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321148</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816073</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872901</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.47031392356</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723847</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2209.570673130037</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>1836.104914868958</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.384678298117</v>
+        <v>1445.965582893146</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4874,37 +4874,37 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500111</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310608</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507746</v>
+        <v>593.0223835625322</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009995</v>
+        <v>956.2844025217519</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1343.569531118696</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020472</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693229</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096579</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O10" t="n">
         <v>1383.126566999034</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1231.074467327194</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1003.084916429177</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.2923372856468</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385793</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>2565.513299557013</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>2680.685310603267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3278.063798229819</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>3905.661761784425</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171342</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892273</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768915</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944984</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782993</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038381</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797783</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487571</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831769</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625882</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588921</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690904</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473739</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913448</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>2715.159942084668</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>3210.485548300427</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3807.864035926979</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3807.864035926979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4267.210002903527</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398595</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.95525898292</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>889.0190760550126</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>738.9024366426769</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956689</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.603723813159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>985.5125840134625</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.721406539404</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369643</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3278.063798229818</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.681434529216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7452516013095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6286121889738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7155186065806</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8255711086703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>248.6294718235502</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,19 +6773,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>221.3431781811722</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K33" t="n">
-        <v>221.3431781811722</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
         <v>716.6687843969308</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,10 +6955,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7125,22 +7125,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238959</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1882.204779583157</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1627.52029137727</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1338.103121340309</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>1110.113570442292</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>889.3209912987617</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>802.9288273958734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>652.8121879835377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>504.8990944011446</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2350.747103816259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.145638839201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1842.070412183399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4359.773766166264</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.320099833421409e-12</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111087</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154998</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>98.24448441976881</v>
+        <v>193.3273467878381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120155</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.9556134883097798</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120155</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.103562085036398e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.9994244361389</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.63391537253393</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.30478226780079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>68.52575990662476</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>74.19629618688163</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.845153664065208</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>68.29586847696689</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>123.3744592024054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.74311112199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.48882721876569</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>10.85445046952125</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5341284403485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.1477127454052</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>812557.0927688705</v>
+        <v>812557.0927688706</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
@@ -26352,10 +26352,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245469</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316251</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316252</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316252</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707275</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26438,7 +26438,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
@@ -26447,13 +26447,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707399</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984464</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984464</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.9112025688</v>
+        <v>-703291.9112025693</v>
       </c>
       <c r="C6" t="n">
         <v>411459.8723733504</v>
       </c>
       <c r="D6" t="n">
-        <v>411459.8723733505</v>
+        <v>411459.8723733501</v>
       </c>
       <c r="E6" t="n">
-        <v>10033.21881459416</v>
+        <v>9685.839560236822</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391406</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391405</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391402</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="J6" t="n">
-        <v>349913.4826291577</v>
+        <v>349566.1033748011</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391402</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391406</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="M6" t="n">
-        <v>384911.3667102136</v>
+        <v>384563.9874558566</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391404</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391401</v>
+        <v>517171.2811847834</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175385</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175384</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175384</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000379</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175385</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>101.3733167811501</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>238.3011781774811</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5675532427124</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.036022305116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>326.7524312831188</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247061</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>1.568178948731259</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>13.88430499202005</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>86.00487318712355</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.2483562891969</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.5461511322997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951984011</v>
       </c>
       <c r="W10" t="n">
-        <v>272.9897886575355</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -30048,13 +30048,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729999</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.681109916659</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745092</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762068</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R3" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000167</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675763</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069556</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336175</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729998</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166589</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147048</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745091</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575839</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.234740417724</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762067</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378622</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R6" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000165</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335767</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682317</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336175</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729998</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166589</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147048</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745091</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575839</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.234740417724</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762067</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378622</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R9" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000165</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335767</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682317</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069555</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8897444730594</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>606.5820696732812</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>638.9422653403558</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>210.394892436556</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>465.2641870096817</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>255.6522884173741</v>
+        <v>150.7833302198383</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407334</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457272</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949723</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637988</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402554</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939887</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313261</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560632</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378499</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820401</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928735</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018091</v>
+        <v>335.4246819961227</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.679529123532</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.420119841963</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870585</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225034</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407333</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457271</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949721</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402553</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939884</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313261</v>
       </c>
       <c r="K6" t="n">
-        <v>284.8319806632535</v>
+        <v>379.9148430313226</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378498</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.93133228204</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928734</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961226</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235319</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870584</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831067</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225034</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407333</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457271</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949721</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402553</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939884</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091725</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434846</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522357</v>
+        <v>297.6803606378498</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.93133228204</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928734</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844324</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634691</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870584</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831067</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
         <v>479.4543240367771</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>116.3353646931852</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.046483262957</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>463.9858252288368</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>496.3460208959114</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>68.26085851453769</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>327.4227480353227</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>128.8146617507074</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530020.337549313</v>
+        <v>2531780.867852097</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>51.12839504521752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.9367604785725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.474502093454</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.57009008111558</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>27.93061033756413</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>198.7445865221355</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>60.42908945944562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472234</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.6276894525145</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247061</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>246.6994950393316</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542695</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.74133133758772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>204.4247418692613</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819412</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>206.550999857767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>533.325186007826</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321148</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321148</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816076</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872904</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2510.694484920137</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2510.694484920137</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2257.113424184317</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057908</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605185</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919899</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748154</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924316</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756612</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.7932119894608</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C4" t="n">
-        <v>771.8570290615539</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D4" t="n">
-        <v>621.7403896492182</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668251</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668251</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020473</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.637649969323</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096581</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074496</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074496</v>
+        <v>1394.999580162348</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074496</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074496</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.223806861248</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.223806861248</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.23425596323</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1122.4416768197</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886689</v>
+        <v>1078.689549231439</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.938431946277</v>
+        <v>1078.689549231439</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1078.689549231439</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333217</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800305</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800305</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800305</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926622</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926622</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926622</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926622</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926622</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926622</v>
+        <v>1855.428721271372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950811</v>
+        <v>1465.28938929556</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800305</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370159</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380253</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694966</v>
+        <v>846.306131908166</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828716</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425661</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.7064461033912</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>513.7702631754843</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>513.7702631754843</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800305</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312182</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020472</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693229</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096579</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.761631868609</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831648</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336309</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.3549109336309</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893146</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.003065952734</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>718.7373673459838</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>332.9491147477395</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321148</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321148</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816073</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872901</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723847</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400152</v>
+        <v>2313.147919269518</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130037</v>
+        <v>1960.379263999404</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868958</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893146</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500111</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310608</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625322</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217519</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118696</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2262.298126874725</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,64 +4938,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800304</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312182</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020472</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693229</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096579</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
         <v>1584.950414897297</v>
@@ -5007,7 +5007,7 @@
         <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.584108449359</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.166938412398</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X13" t="n">
-        <v>941.1773875143809</v>
+        <v>964.4894946679489</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.3848083708508</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6557,7 +6557,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694706</v>
@@ -6976,13 +6976,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7098,49 +7098,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238959</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583157</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.52029137727</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340309</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442292</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987617</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,10 +7496,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
         <v>2129.438138565707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883063123</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111087</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154998</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>255.8421700460938</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120155</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9556134883097798</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019031</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120155</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.103562085036398e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.63391537253393</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.71290145456675</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>10.85445046952125</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>133.693886234629</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>812557.0927688706</v>
+        <v>812557.0927688705</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793067.3743478792</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
@@ -26352,10 +26352,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597552</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245469</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316251</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316252</v>
+        <v>131909.7268316248</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316252</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
@@ -26438,22 +26438,22 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984464</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984464</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.9112025693</v>
+        <v>-703291.9112025691</v>
       </c>
       <c r="C6" t="n">
-        <v>411459.8723733504</v>
+        <v>411459.8723733501</v>
       </c>
       <c r="D6" t="n">
-        <v>411459.8723733501</v>
+        <v>411459.8723733503</v>
       </c>
       <c r="E6" t="n">
-        <v>9685.839560236822</v>
+        <v>9998.480889158905</v>
       </c>
       <c r="F6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="G6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137044</v>
       </c>
       <c r="H6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137044</v>
       </c>
       <c r="I6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="J6" t="n">
-        <v>349566.1033748011</v>
+        <v>349878.7447037221</v>
       </c>
       <c r="K6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="L6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="M6" t="n">
-        <v>384563.9874558566</v>
+        <v>384876.6287847781</v>
       </c>
       <c r="N6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137048</v>
       </c>
       <c r="O6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.922513705</v>
       </c>
       <c r="P6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137045</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175384</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175384</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000381</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000379</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241356</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996093</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996104</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996104</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>72.32382035357683</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>238.3011781774811</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>57.18795826828347</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5675532427124</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>326.7524312831188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>183.1857835501262</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247061</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86.00487318712355</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>80.85095794181376</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.2483562891969</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>81.05276343080328</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951984011</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181056</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441729999</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.681109916659</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745092</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762068</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000167</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069556</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181056</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336175</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441729998</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166589</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147048</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745091</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347158</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575839</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.234740417724</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762067</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378622</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000165</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335767</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682317</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069555</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181056</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336175</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441729998</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166589</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147048</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745091</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347158</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575839</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.234740417724</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762067</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378622</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000165</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335767</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682317</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069555</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34216,13 +34216,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457272</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949723</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637988</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402554</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939887</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313261</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560632</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378499</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820401</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928735</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961227</v>
+        <v>336.3802954844294</v>
       </c>
       <c r="P3" t="n">
-        <v>249.679529123532</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.420119841963</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870585</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225034</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407333</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457271</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949721</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637945</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402553</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939884</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313261</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313226</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378498</v>
+        <v>553.5225306839441</v>
       </c>
       <c r="M6" t="n">
-        <v>366.93133228204</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928734</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961226</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235319</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667034</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870584</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831067</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225034</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407333</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457271</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949721</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637945</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402553</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939884</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091725</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434846</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378498</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
-        <v>366.93133228204</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928734</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>336.3802954844324</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634691</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667034</v>
+        <v>303.0719207327577</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870584</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831067</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
